--- a/biology/Médecine/Corps_de_Schiller_Duval/Corps_de_Schiller_Duval.xlsx
+++ b/biology/Médecine/Corps_de_Schiller_Duval/Corps_de_Schiller_Duval.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Corps de Schiller Duval est une structure cellulaire observée par microscope dans les tumeurs du sinus endodermique (tumeur du sac vitellin) qui sont les plus communs du testicule chez les enfants. 
 Ce sont le professeur d'anatomie Mathias-Marie Duval et le gynécologue austro-américain Walter Schiller (1887-1960), qui analysèrent les structures présentes dans les tumeurs endodermiques du sinus, qui seront dénommés les corps de Schiller Duval.
